--- a/石田関係/クモ仕様書(β用).xlsx
+++ b/石田関係/クモ仕様書(β用).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="4" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <sheet name="木" sheetId="10" r:id="rId9"/>
     <sheet name="糸" sheetId="11" r:id="rId10"/>
     <sheet name="奪った糸" sheetId="15" r:id="rId11"/>
-    <sheet name="UI" sheetId="12" r:id="rId12"/>
-    <sheet name="操作説明" sheetId="14" r:id="rId13"/>
-    <sheet name="AI" sheetId="21" r:id="rId14"/>
+    <sheet name="回避アクション (2)" sheetId="24" r:id="rId12"/>
+    <sheet name="回避アクション" sheetId="23" r:id="rId13"/>
+    <sheet name="UI" sheetId="12" r:id="rId14"/>
+    <sheet name="操作説明" sheetId="14" r:id="rId15"/>
+    <sheet name="AI" sheetId="21" r:id="rId16"/>
+    <sheet name="リザルト" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -2834,314 +2837,1564 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通常時</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
+    <t>リザルト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>木の幹</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミキ</t>
+    <t>ゲーム終了時、ゲーム画面を止めて、1秒間かけて薄暗くする</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ウスグラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプ</t>
+    <t>通常
+パターン</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">近くの別の木にジャンプ
-着地後、跳ぶ前の木以外の木をランダムで選択
-木を選択する時、近い木の幹の部分か枝かをランダムで選択
-もし
-</t>
+    <t>敵の糸の地点に跳ぶ、または陣地ジャンプ中に敵の糸とぶつかりそうな時、回避アクションすることで敵の糸に引っかかず、敵の糸を奪うことが可能</t>
     <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
       <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>木の幹部分と枝部分が別オブジェクト化してるのを用意</t>
+    <t>木から木に跳ぶ瞬間、そこの画面に映っている(見えている)糸の本数によって、回避アクションのあたり判定が変わっていく</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>エダ</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
       <t>カ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>幹の一番近い表面部分にジャンプ
+    <t>回避アクションは、走高跳のような避け方をイメージするとありがたいです。</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ハシリタカトビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面内に青糸が赤糸よりも多い場合、敵の糸に引っかかるあたり判定が短くなる(回避しやすくなる)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面内に青糸が赤糸よりも少ない場合、敵の糸に引っかかるあたり判定が大きくなる(引っかかりやすい)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の糸に狙って跳んだ場合の敵糸の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸へ</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木に向かって跳んでる途中の敵糸とのあたり判定</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI(赤糸)優勢時</t>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI劣勢時</t>
+    <rPh sb="2" eb="4">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ステージすべての木を選択範囲内にし、最も近くの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を最優先で選択しジャンプ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が1つもなくなった場合は、このパターンは使われない</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左と同じパターン</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が近くにある場合
+序盤でのメイン</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>近くの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に青い</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>糸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がついていて、その木の糸本数差が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2本以下</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の場合</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>近くに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を
+見つけた場合</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>範囲内に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>があった場合は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を最優先に跳ぶ
+範囲内の最も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸本数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が少ない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">に陣地ジャンプ
+</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　下の条件が複数当てはまった場合は上の条件を優先して行う</t>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・陣地木の差が3本以上のAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>優勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劣勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　で切り替え</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ボン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・初期に配置されてる無色の木の色を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、AIの陣地や糸の色を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、プレイヤーが操作してる陣地や糸の色は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とする</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムショク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>10秒に1回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ごとに現在の陣地の状況が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>優勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劣勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>かを判断し、それによって強さを変えていく</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パターンは通常パターンに加えて、下の条件にあったらそれを加えて行動させる</t>
+    <rPh sb="6" eb="8">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・木の幹部分と枝部分が別オブジェクト化してるのをプランナー側で用意</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">陣地ジャンプの軌道に
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が入ってる場合</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基本行動は左と同じパターン
+着地後の停止時間は2秒となる
+着地して移動後、その木についている糸の本数差が1本で、クモAIのいる地点から半径10cm以内に同じその木についている枝があった場合、その枝を最優先で跳ぶ
+↑の行動が成功した場合、次のジャンプ先は必ず他の木限定とする
+</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くの木にジャンプ
 着地後1秒間その場で停止
 停止後、十字いずれか一方向に1秒間ランダム移動
 移動後1秒間停止
-その後ジャンプへ
-もし移動した先にジャンプできる木がなかった場合は、再び十字いずれか一方向に1秒間ランダム移動
+2つ前まで跳んだ木以外で、近くの木を2つ選択しその2つのうちどちらかをランダムで選択
+木を選択した時、その木がカメラの真ん中にまでカメラを旋回さえ、そのカメラに映ってる木の面で一番近い地点から半径10cm範囲内をとり、その範囲内(空中は対象外)で着地ポイントをランダムで選択し陣地ジャンプする
+以後繰り返し
+もし移動した先にジャンプできる木がなかった場合は、再び十字いずれか一方向に2秒間ランダム移動
 以後ジャンプができるまで繰り返し</t>
     <rPh sb="0" eb="1">
-      <t>ミキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
       <t>チカ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="158" eb="161">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="174" eb="177">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
       <t>チャクチ</t>
     </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>イチホウコウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
+    <rPh sb="191" eb="193">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
       <t>イゴ</t>
     </rPh>
-    <rPh sb="130" eb="131">
+    <rPh sb="205" eb="206">
       <t>ク</t>
     </rPh>
-    <rPh sb="132" eb="133">
+    <rPh sb="207" eb="208">
       <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">枝の一番近い表面部分にジャンプ
-着地後1秒間その場で停止
-停止後、上下いずれか一方向に1秒間ランダム移動
-移動後1秒間停止
-その後ジャンプへ
-もし移動した先にジャンプできる木がなかった場合は、再び上下いずれか一方向に1秒間ランダム移動
-以後ジャンプができるまで繰り返し
-※通常時は1つの木に枝同士で糸を貼るのはない
-</t>
-    <rPh sb="0" eb="1">
-      <t>エダ</t>
+    <t>基本行動は一番左と同じ
+着地後の停止時間を0.5秒に
+停止後の移動は無しに
+ステージすべての木を選択範囲内にし、その中で青い木以外で最も近くの本数差が2本以下の木を目的地として選択
+その木までたどり着く最短距離を決める(この時跳ぶ先の地点は自分のいる同じ高さで)
+劣勢から6~7秒の間で木に着地してる時、</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>イチバン</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>テイシジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="68" eb="69">
       <t>チカ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="71" eb="73">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ホンイカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
       <t>チャクチ</t>
     </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>イチホウコウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>エダ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ドウシ</t>
-    </rPh>
     <rPh sb="150" eb="151">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>陣地木の差が3本以上のAI優勢、劣勢、通常　で切り替え</t>
-    <rPh sb="0" eb="2">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ボン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ユウセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>レッセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時限強化</t>
-    <rPh sb="0" eb="2">
-      <t>ジゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョウカ</t>
+      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3150,7 +4403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3233,6 +4486,52 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3248,7 +4547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3351,12 +4650,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3376,24 +4712,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3403,6 +4721,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3430,6 +4755,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5747,6 +7109,3945 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292328</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>21895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590344</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>229913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5120518" y="9492154"/>
+          <a:ext cx="3056981" cy="1894052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179569</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5007759" y="6163879"/>
+          <a:ext cx="3214396" cy="1991584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648928</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>208017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4861035" y="2288189"/>
+          <a:ext cx="3375048" cy="2091121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>59535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807461" y="9488872"/>
+          <a:ext cx="3495212" cy="1967818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66164</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157952</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="751964" y="9404021"/>
+          <a:ext cx="3520788" cy="1971641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54304</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22793</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="740104" y="2236953"/>
+          <a:ext cx="3397489" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172874</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>235717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>553873</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1544474" y="1978792"/>
+          <a:ext cx="1752599" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>敵の糸にジャンプした時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2763674"/>
+          <a:ext cx="590550" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 64516"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547414</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>416034</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6755086" y="3251639"/>
+          <a:ext cx="1937845" cy="197068"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391948</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>492672</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8668845" y="3056102"/>
+          <a:ext cx="5618655" cy="1717346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>敵の糸の当たり判定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>・糸に着地するまでに黄色い範囲内で回避アクションを入力しないと、糸の罠に引っかかってしまう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>・範囲外で回避アクションをしてもアニメーションはされるが回避にはならない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>回避アクションのアクション時間は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>0.5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>秒とし、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>黄色い範囲内を通る基本の時間は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>1.5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>秒とする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>191924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601074" y="2582700"/>
+          <a:ext cx="2409825" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た糸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>実際の断面は丸い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339397</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6511597" y="2733731"/>
+          <a:ext cx="2089477" cy="676220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393703</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218966</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880103" y="9144547"/>
+          <a:ext cx="1196863" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>150979</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>235716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531978</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1522579" y="9122541"/>
+          <a:ext cx="1752599" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面内に青糸が多い場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207142</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111892</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右矢印 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4321942" y="9778782"/>
+          <a:ext cx="590550" cy="1283138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 64516"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557595</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>201886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32844</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>27699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2614995" y="11469961"/>
+          <a:ext cx="2218449" cy="302063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>ここを狙ってジャンプした場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>218966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87586</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3005958" y="10772666"/>
+          <a:ext cx="510628" cy="755431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10948</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>208018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218965</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153277</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6868948" y="10285468"/>
+          <a:ext cx="1579617" cy="183384"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227724</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>131378</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>186121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8504621" y="6920844"/>
+          <a:ext cx="5421585" cy="1531225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>回避アクション判定範囲が拡大</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>・画面内に入っている自分の青糸が多ければ多いほど回避アクション成功範囲内が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>大きくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>画面内の青糸の本数差が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>本につき範囲が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>0.3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>秒分広くなっていく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>最大の範囲は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>秒分の広さが上限</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>本数差が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　　要調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404652</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>194770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229915</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>20583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5891052" y="12415345"/>
+          <a:ext cx="1196863" cy="302063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>667845</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542927</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>239440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1353645" y="12390602"/>
+          <a:ext cx="1932482" cy="307538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面内に青糸が少ない場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569311</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218966</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6776983" y="10083362"/>
+          <a:ext cx="1718880" cy="383190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227724</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>131378</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8504621" y="9975412"/>
+          <a:ext cx="5421585" cy="1936312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>回避アクション判定範囲が縮小</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・画面内に入っている自分の青糸が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>少ないほど</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>回避アクション成功範囲内が</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>小さくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面内の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>赤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>糸の本数差が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>本につき範囲が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>秒分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>狭くなっていく</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>小</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の範囲は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>秒分の広さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>これ以上は小さくならない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　要調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周りが赤糸だらけでも小さい範囲内でもタイミング次第で成功するかもしれない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ギリギリの範囲内</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557595</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>201886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32844</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2614995" y="14803711"/>
+          <a:ext cx="2218449" cy="302063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>ここを狙ってジャンプした場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>218966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87586</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3005958" y="14106416"/>
+          <a:ext cx="510628" cy="755431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>678356</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141014</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4793156" y="2022695"/>
+          <a:ext cx="3577458" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た時の敵糸とプレイヤーの当たり判定範囲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87587</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>645948</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>213783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4915777" y="1817416"/>
+          <a:ext cx="3317326" cy="2085935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117720</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>51458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164225</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>92380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807461" y="9039992"/>
+          <a:ext cx="3495212" cy="1967818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66164</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157952</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755905" y="5657412"/>
+          <a:ext cx="3540495" cy="1993537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>678356</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141014</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4816804" y="1563305"/>
+          <a:ext cx="3601107" cy="307537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た時の敵糸とプレイヤーの当たり判定範囲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54304</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22793</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744045" y="1780300"/>
+          <a:ext cx="3417196" cy="2126921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172874</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>235717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>553873</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552357" y="1516665"/>
+          <a:ext cx="1760482" cy="310275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>敵の糸にジャンプした時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4290848" y="2312496"/>
+          <a:ext cx="594492" cy="1299560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 64516"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208017</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>416034</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>229915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7105431" y="2769915"/>
+          <a:ext cx="1587500" cy="186121"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>424793</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>328447</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8701690" y="2661965"/>
+          <a:ext cx="5421585" cy="1115189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>敵の糸の当たり判定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　赤い範囲内に入ってしまうと、糸の罠に引っかかってしまう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　その範囲内は回避アクションをすることでそのあたり判定を切ることができる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　黄色の範囲内に入ればその敵の糸に着地でき青い糸になる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>191924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648371" y="2128784"/>
+          <a:ext cx="2425590" cy="307537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た糸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>実際の断面は丸い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339397</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6547069" y="2282553"/>
+          <a:ext cx="2101302" cy="684431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149999</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>7673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>503621</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>37972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4978189" y="8996207"/>
+          <a:ext cx="3112587" cy="1957195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146724</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>70086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4974914" y="5686552"/>
+          <a:ext cx="3203448" cy="2014328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393703</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218966</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>86271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5911634" y="5395200"/>
+          <a:ext cx="1204746" cy="307537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>150979</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>235716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531978</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>64266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530462" y="5370457"/>
+          <a:ext cx="1760482" cy="310275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面内に青糸が多い場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207142</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111892</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="右矢印 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345590" y="6034910"/>
+          <a:ext cx="594492" cy="1299560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 64516"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557595</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>201886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32844</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2626819" y="7745248"/>
+          <a:ext cx="2234215" cy="307537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>ここを狙ってジャンプした場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>218966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87586</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3021724" y="7039742"/>
+          <a:ext cx="514569" cy="766379"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10948</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>208018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218965</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153277</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6908362" y="6547070"/>
+          <a:ext cx="1587500" cy="186121"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227724</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>100068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>131378</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8504621" y="6439120"/>
+          <a:ext cx="5421585" cy="1115189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>敵の糸の罠あたり判定が縮小</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>　画面内に入っている自分の青糸が多ければ多いほど少しずつ罠のあたり判定が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>小さくなっていく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>　それによって回避アクションが成功しやすくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404652</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>194770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229915</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5922583" y="8701580"/>
+          <a:ext cx="1204746" cy="307537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>真横から見た時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>667845</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>170027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542927</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>239440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1357586" y="8676837"/>
+          <a:ext cx="1944307" cy="310275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面内に青糸が少ない場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>383189</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218965</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>109482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7280603" y="9601638"/>
+          <a:ext cx="1215259" cy="218965"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227724</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>23429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>131378</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>175170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8504621" y="9493688"/>
+          <a:ext cx="5421585" cy="1115189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>敵の糸の罠あたり判定が拡大</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>　画面内に入っている赤糸が多いほど罠のあたり判定が大きくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>　それによって回避アクションは失敗しやすくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557595</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>201886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32844</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2626819" y="11117317"/>
+          <a:ext cx="2234215" cy="307537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>ここを狙ってジャンプした場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>218966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87586</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3021724" y="10411811"/>
+          <a:ext cx="514569" cy="766379"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54741</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>194703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744482" y="5156637"/>
+          <a:ext cx="3339224" cy="2099704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29570</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>624053</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>203525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857760" y="5156515"/>
+          <a:ext cx="3353448" cy="2108648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48191</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>613104</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>205777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014829" y="5177360"/>
+          <a:ext cx="3323878" cy="2090055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274828</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>198188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297841</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>213447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9241466" y="10631895"/>
+          <a:ext cx="3471720" cy="2183018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63534</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>86547</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>188275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9030172" y="10847585"/>
+          <a:ext cx="3471720" cy="2183018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520086</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>174051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8796983" y="11074223"/>
+          <a:ext cx="3471720" cy="2183018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374483</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>13190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>397496</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6582155" y="14541552"/>
+          <a:ext cx="3471720" cy="2183018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9913</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32926</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>25173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6907327" y="14779138"/>
+          <a:ext cx="3471720" cy="2183018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127069</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>214656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>150082</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>229915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7024483" y="15224742"/>
+          <a:ext cx="3471720" cy="2183018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -6028,332 +11329,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>589296</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>62703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>584637</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2638813" y="1573565"/>
-          <a:ext cx="678514" cy="252608"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="bg1"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="0070C0"/>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:srgbClr val="00B0F0"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="0" scaled="1"/>
-        </a:gradFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147455</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9437</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="稲妻 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4262255" y="1648004"/>
-          <a:ext cx="547782" cy="709926"/>
-        </a:xfrm>
-        <a:prstGeom prst="lightningBolt">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7409,315 +12384,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>79857</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>62008</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>605387</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>193363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 44"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2129374" y="1099905"/>
-          <a:ext cx="1208703" cy="367837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>プレイヤー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>陣地</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="1">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127529</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>91978</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>74829</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219619</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 45"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543391" y="1129875"/>
-          <a:ext cx="630472" cy="364123"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>敵陣地</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>261673</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -8016,275 +12682,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595864</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>591205</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>151086</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2645381" y="1882306"/>
-          <a:ext cx="678514" cy="252608"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="bg1"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="C00000"/>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:srgbClr val="FF0000"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="0" scaled="1"/>
-        </a:gradFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1036</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>193363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>52551</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>151086</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2733726" y="1467742"/>
-          <a:ext cx="51515" cy="194206"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426982</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>213070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388605</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3161217" y="1479335"/>
-          <a:ext cx="645182" cy="506038"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -8500,7 +12897,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8728,26 +13125,251 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>563943</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>58004</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20034</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>524915</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138469</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3449034" y="3086100"/>
+          <a:ext cx="275241" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177372</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943224" y="3998888"/>
+          <a:ext cx="3381375" cy="779059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>カメラ旋回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>連動して方向回転</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>押し込み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>視点リセット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78168</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>618492</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8793543" y="2515454"/>
-          <a:ext cx="646772" cy="318590"/>
+          <a:off x="2135568" y="2228851"/>
+          <a:ext cx="540324" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8882,238 +13504,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>30147</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68817</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497268</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>189622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3459147" y="3240642"/>
-          <a:ext cx="265128" cy="902733"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>112688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91647</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 96"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2943225" y="3998888"/>
-          <a:ext cx="2552700" cy="931459"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>カメラ旋回</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>押し込み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>視点リセット</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>78168</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>618492</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="楕円 7"/>
+        <xdr:cNvPr id="9" name="楕円 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2135568" y="2124075"/>
-          <a:ext cx="540324" cy="695326"/>
+          <a:off x="3240468" y="2647072"/>
+          <a:ext cx="417132" cy="439028"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -9248,160 +13658,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>516318</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="楕円 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3259518" y="2704222"/>
-          <a:ext cx="417132" cy="524754"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -9409,19 +13665,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>157297</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>194166</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="直線コネクタ 9"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1485900" y="2076450"/>
-          <a:ext cx="657225" cy="514350"/>
+          <a:ext cx="728797" cy="575166"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9451,16 +13709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>131738</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>141263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>110697</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>73061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9469,8 +13727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3752850" y="922313"/>
-          <a:ext cx="2552700" cy="931459"/>
+          <a:off x="8953500" y="455588"/>
+          <a:ext cx="3181350" cy="1122423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9580,416 +13838,31 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>狙った木にジャンプ</a:t>
+            <a:t>地面にいるとき：通常ジャンプ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>(</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>木にいるとき：陣地ジャンプ</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>空中時：回避アクション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>668718</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>67529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>629690</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147994</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7526718" y="2524979"/>
-          <a:ext cx="646772" cy="318590"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>468297</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106917</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77636</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>108606</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7326297" y="1611867"/>
-          <a:ext cx="295139" cy="954189"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7496175" y="1619250"/>
-          <a:ext cx="1400175" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>141263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>100710</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 96"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6648450" y="1169963"/>
-          <a:ext cx="1495425" cy="435697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>方向回転</a:t>
+            <a:t>（長押し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>糸通過）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10203,16 +14076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>141263</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>176910</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10221,8 +14094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9210675" y="1169963"/>
-          <a:ext cx="1495425" cy="511897"/>
+          <a:off x="5943600" y="1789088"/>
+          <a:ext cx="1495425" cy="686150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10334,6 +14207,15 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>主観切り替え</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>TP/FP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10341,26 +14223,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11493</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>44396</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>649668</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>610640</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>33694</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18"/>
+        <xdr:cNvPr id="28" name="楕円 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3440493" y="2263721"/>
-          <a:ext cx="321882" cy="384229"/>
+          <a:off x="7507668" y="2134454"/>
+          <a:ext cx="646772" cy="356690"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10495,28 +14377,712 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>287254</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="1609725"/>
+          <a:ext cx="296779" cy="524729"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>205485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="1274738"/>
+          <a:ext cx="1943100" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>着地地点切り替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="2084363"/>
+          <a:ext cx="1685925" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>回避アクション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29615</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="楕円 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="2533649"/>
+          <a:ext cx="829715" cy="252769"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10565</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="楕円 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="2514599"/>
+          <a:ext cx="829715" cy="252769"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9534525" y="2381250"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>17436</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7209</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+        <xdr:cNvPr id="47" name="直線コネクタ 46"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="19" idx="6"/>
+          <a:endCxn id="42" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3762375" y="1781175"/>
-          <a:ext cx="457200" cy="693711"/>
+        <a:xfrm>
+          <a:off x="6972300" y="2257425"/>
+          <a:ext cx="578709" cy="491976"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10816,7 +15382,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10942,7 +15508,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -10952,10 +15518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -11038,7 +15604,7 @@
   </sheetPr>
   <dimension ref="A3:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -11066,140 +15632,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11214,13 +15780,186 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -11229,10 +15968,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -11336,15 +16075,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -11353,10 +16092,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -11496,87 +16235,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="13"/>
+      <c r="B11" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="305.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="B12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11584,7 +16398,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11666,7 +16479,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -11675,10 +16488,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -11901,10 +16714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -12010,10 +16823,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">

--- a/石田関係/クモ仕様書(β用).xlsx
+++ b/石田関係/クモ仕様書(β用).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="4" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="木" sheetId="10" r:id="rId9"/>
     <sheet name="糸" sheetId="11" r:id="rId10"/>
     <sheet name="奪った糸" sheetId="15" r:id="rId11"/>
-    <sheet name="回避アクション (2)" sheetId="24" r:id="rId12"/>
-    <sheet name="回避アクション" sheetId="23" r:id="rId13"/>
-    <sheet name="UI" sheetId="12" r:id="rId14"/>
-    <sheet name="操作説明" sheetId="14" r:id="rId15"/>
-    <sheet name="AI" sheetId="21" r:id="rId16"/>
-    <sheet name="リザルト" sheetId="22" r:id="rId17"/>
+    <sheet name="回避アクション " sheetId="24" r:id="rId12"/>
+    <sheet name="UI" sheetId="12" r:id="rId13"/>
+    <sheet name="操作説明" sheetId="14" r:id="rId14"/>
+    <sheet name="AI" sheetId="21" r:id="rId15"/>
+    <sheet name="リザルト" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="184">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -3309,114 +3308,6 @@
   </si>
   <si>
     <r>
-      <t>近くの</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤い木</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に青い</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>糸</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>がついていて、その木の糸本数差が</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2本以下</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の場合</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>近くに</t>
     </r>
     <r>
@@ -3456,6 +3347,755 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・初期に配置されてる無色の木の色を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、AIの陣地や糸の色を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、プレイヤーが操作してる陣地や糸の色は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とする</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムショク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パターンは通常パターンに加えて、下の条件にあったらそれを加えて行動させる</t>
+    <rPh sb="6" eb="8">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">陣地ジャンプの軌道に
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が入ってる場合</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>近くに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を
+見つけた場合</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　条件が複数当てはまった場合は上の条件を優先して行う</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20秒に1回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ごとに現在の陣地の状況が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>優勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劣勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>かを判断し、それによって強さを変えていく</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>基本行動は一番左と同じ
+着地後の停止時間を0.5秒に
+停止後の移動は無しに
+ステージすべての木を選択範囲内にし、その中で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以外で最も近くの本数差が2本以下の木を目的地として選択
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その木までたどり着く最短距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を決める(この時跳ぶ先の地点は自分のいる同じ高さで)
+劣勢から10～15秒の間で木に着地してる時、その地点の範囲内に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>があった場合、その中で最も長い糸を選択しその糸にジャンプする(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>糸を奪う</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)
+その時糸を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>奪う成功率は80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にする</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>テイシジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ホンイカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="210" eb="213">
+      <t>セイコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つ前に貼った糸と、次に貼った糸との間隔が2cm以内で飛ばした角度が40度以下であれば2本の経糸の間に横糸が自動的に貼られる</t>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タテイト</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヨコイト</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の本数は7本</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3552,7 +4192,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>木</t>
+      <t>青い木</t>
     </r>
     <r>
       <rPr>
@@ -3562,8 +4202,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">に陣地ジャンプ
-</t>
+      <t>に陣地ジャンプ</t>
     </r>
     <rPh sb="0" eb="3">
       <t>ハンイナイ</t>
@@ -3617,47 +4256,154 @@
       <t>スク</t>
     </rPh>
     <rPh sb="45" eb="46">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
       <t>キ</t>
     </rPh>
-    <rPh sb="47" eb="49">
+    <rPh sb="49" eb="51">
       <t>ジンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　下の条件が複数当てはまった場合は上の条件を優先して行う</t>
-    <rPh sb="1" eb="2">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="16">
+    <t>回避アクションの成功率は65%とする
+木に向かってジャンプ中での回避アクションは途中で糸の上に乗って奪うことはない</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>陣地ジャンプ範囲内に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>があり、その木に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が付いていて、その糸の本数差が2本以下だった場合はその地点に最優先して跳ぶ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ホンイカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="51" eb="53">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
       <t>ユウセン</t>
     </rPh>
-    <rPh sb="26" eb="27">
-      <t>オコナ</t>
+    <rPh sb="59" eb="60">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>・陣地木の差が3本以上のAI</t>
+      <t>・陣地木の差が3本以上(5:2や6:1)のAI</t>
     </r>
     <r>
       <rPr>
@@ -3734,37 +4480,90 @@
     <rPh sb="9" eb="11">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="23" eb="25">
       <t>ユウセイ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="26" eb="28">
       <t>レッセイ</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="29" eb="31">
       <t>ツウジョウ</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="33" eb="34">
       <t>キ</t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="35" eb="36">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>一番上の基本パターンと同じ</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番上の基本パターンと同じ</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・AIの移動速度の基準値は１　</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キジュンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>・初期に配置されてる無色の木の色を</t>
+      <t>近くの木にジャンプ
+着地後1秒間その場で停止
+停止後、十字いずれか一方向に1秒間ランダム移動
+その時、移動速度も基準値1~1.5のランダムで変わる(要調整)
+この時の幅で速度が1.1までがギリギリ網を発生させる幅の条件の1つ
+移動後1秒間停止
+2つ前まで跳んだ木以外で、近くの木を2つ選択しその2つのうちどちらかをランダムで選択
+木を選択した時、その木がカメラの真ん中にまでカメラを旋回さえ、そのカメラに映ってる木の面で一番近い地点から半径10cm範囲内をとり、その範囲内(空中と地面は対象外)で着地ポイントをランダムで選択し陣地ジャンプする
+以後繰り返し
+もし移動した先にジャンプできる木がなかった場合、その範囲内にある一番</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FFFF0000"/>
         <rFont val="メイリオ"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>白</t>
+      <t>赤い糸</t>
     </r>
     <r>
       <rPr>
@@ -3774,8 +4573,356 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>、AIの陣地や糸の色を</t>
+      <t>を選択しその糸のジャンプ範囲内にある着地地点をランダムで決めて跳ぶ
+糸もなかったら再び十字いずれか一方向に2秒間ランダム移動
+以後ジャンプができるまで繰り返し
+陣地ジャンプを5～６回したらその地点の範囲内最も近い青い糸を選択し、その地点に向かって陣地ジャンプする(奪う)
+この時の成功確率を50%にする</t>
     </r>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>キジュンチ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>アミ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="224" eb="227">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="243" eb="246">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="306" eb="309">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="318" eb="320">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="323" eb="324">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="329" eb="332">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="348" eb="349">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="408" eb="409">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="414" eb="416">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="417" eb="420">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="420" eb="421">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="422" eb="423">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="424" eb="425">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="426" eb="427">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="428" eb="430">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="434" eb="436">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="441" eb="443">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="450" eb="451">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="456" eb="457">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="458" eb="460">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="460" eb="462">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基本行動は左と同じパターン
+着地後の停止時間は2秒となる
+その時、移動速度も基準値0.8~1.2のランダムで変わる(要調整)
+この状況は網を貼りやすくなる
+着地して移動後、その木についている糸の本数差が1本で、クモAIのいる地点から半径10cm以内に同じその木についている枝があった場合、その枝を最優先で跳ぶ
+↑の行動が成功した場合、次のジャンプ先は必ず他の木限定とする
+</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>アミ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【基本パターンから加える追加条件】</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避アクションの成功率は50%とする
+あまり失敗しない方がよい
+回避が成功したらその糸の上に乗っかる</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -3785,273 +4932,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>赤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、プレイヤーが操作してる陣地や糸の色は</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>とする</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ムショク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>10秒に1回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ごとに現在の陣地の状況が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>優勢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>劣勢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>かを判断し、それによって強さを変えていく</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ユウセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>レッセイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・パターンは通常パターンに加えて、下の条件にあったらそれを加えて行動させる</t>
-    <rPh sb="6" eb="8">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・木の幹部分と枝部分が別オブジェクト化してるのをプランナー側で用意</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エダ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">陣地ジャンプの軌道に
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>青い糸</t>
+      <t>糸の上</t>
     </r>
     <r>
       <rPr>
@@ -4062,339 +4943,525 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>が入ってる場合</t>
+      <t>に乗っている場合</t>
     </r>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>木を選択するのは基本パターンと同じ
+近くに木がなかった場合、今乗っている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>糸の両端にある木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を選択しその2本のうち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>があった場合、その木に向かって移動しジャンプ範囲内に入ったらその1秒後に止まりその木にジャンプする</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>リョウタン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有限のいとの色と上書きした際の糸の色</t>
     <rPh sb="0" eb="2">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
+      <t>ユウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>木を選択するのは基本パターンと同じ
+近くに木がなかった場合、自分が乗っている糸でのジャンプ範囲内に別の糸が範囲に入っていれば、ジャンプポジションまでプレイヤーは糸の上を移動し、その糸にジャンプ
+近くに糸もない場合、今乗っている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>糸の両端にある木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を選択しその2本のうちランダムで木を選択、その木に向かって移動しジャンプ範囲内に入ったらその1秒後に止まりその木にジャンプする</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>木を選択するのは基本パターンと同じ
+最優先は最も近くにある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を選択
+今乗っている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>糸の両端にある木2本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とその</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の長さを比べ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に近い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に向かって移動し、ジャンプ範囲内に入ったら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にジャンプする
+木についたとき、そこから青い木との最短ルートを算出
+以後一番↑の基本パターンと同じ</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
       <t>アオ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
       <t>イト</t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">基本行動は左と同じパターン
-着地後の停止時間は2秒となる
-着地して移動後、その木についている糸の本数差が1本で、クモAIのいる地点から半径10cm以内に同じその木についている枝があった場合、その枝を最優先で跳ぶ
-↑の行動が成功した場合、次のジャンプ先は必ず他の木限定とする
-</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
+    <rPh sb="44" eb="46">
+      <t>リョウタン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
       <t>キ</t>
     </rPh>
-    <rPh sb="46" eb="47">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ポン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ハンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近くの木にジャンプ
-着地後1秒間その場で停止
-停止後、十字いずれか一方向に1秒間ランダム移動
-移動後1秒間停止
-2つ前まで跳んだ木以外で、近くの木を2つ選択しその2つのうちどちらかをランダムで選択
-木を選択した時、その木がカメラの真ん中にまでカメラを旋回さえ、そのカメラに映ってる木の面で一番近い地点から半径10cm範囲内をとり、その範囲内(空中は対象外)で着地ポイントをランダムで選択し陣地ジャンプする
-以後繰り返し
-もし移動した先にジャンプできる木がなかった場合は、再び十字いずれか一方向に2秒間ランダム移動
-以後ジャンプができるまで繰り返し</t>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="51" eb="52">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
       <t>キ</t>
     </rPh>
-    <rPh sb="58" eb="59">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="64" eb="65">
+    <rPh sb="59" eb="60">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
       <t>キ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>イガイ</t>
     </rPh>
     <rPh sb="69" eb="70">
       <t>チカ</t>
     </rPh>
-    <rPh sb="76" eb="78">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
+    <rPh sb="71" eb="72">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
       <t>キ</t>
     </rPh>
-    <rPh sb="115" eb="116">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>センカイ</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
+    <rPh sb="75" eb="76">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
       <t>キ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>メン</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="158" eb="161">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="174" eb="177">
-      <t>タイショウガイ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>イゴ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本行動は一番左と同じ
-着地後の停止時間を0.5秒に
-停止後の移動は無しに
-ステージすべての木を選択範囲内にし、その中で青い木以外で最も近くの本数差が2本以下の木を目的地として選択
-その木までたどり着く最短距離を決める(この時跳ぶ先の地点は自分のいる同じ高さで)
-劣勢から6~7秒の間で木に着地してる時、</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>テイシジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ホンイカ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="82" eb="85">
-      <t>モクテキチ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>サイタン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>キョリ</t>
     </rPh>
     <rPh sb="106" eb="107">
       <t>キ</t>
     </rPh>
-    <rPh sb="112" eb="113">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
+    <rPh sb="118" eb="119">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避アクションの成功率を85%とする
+ほぼほぼ成功して飛んでいく
+木に向かってジャンプ中での回避アクションは途中で糸の上に乗って奪うことはない</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>ト</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>レッセイ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4547,7 +5614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4651,6 +5718,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -4663,36 +5743,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4726,6 +5782,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4758,40 +5855,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9083,33 +10146,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>87587</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>54744</xdr:rowOff>
+      <xdr:colOff>51466</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>645948</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>213783</xdr:rowOff>
+      <xdr:colOff>609301</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>210174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPr id="13" name="図 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9122,8 +10180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4915777" y="1817416"/>
-          <a:ext cx="3317326" cy="2085935"/>
+          <a:off x="4879656" y="13375518"/>
+          <a:ext cx="3316800" cy="2085604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9135,25 +10193,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>117720</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>51458</xdr:rowOff>
+      <xdr:colOff>81036</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>201466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>164225</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>92380</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638870</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>119311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="14" name="図 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9166,8 +10224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="807461" y="9039992"/>
-          <a:ext cx="3495212" cy="1967818"/>
+          <a:off x="770777" y="14970690"/>
+          <a:ext cx="3316800" cy="2085604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9178,26 +10236,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66164</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>40946</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55862</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>55861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157952</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>107587</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>613697</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>214569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="28" name="図 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9210,8 +10268,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="755905" y="5657412"/>
-          <a:ext cx="3540495" cy="1993537"/>
+          <a:off x="9022500" y="13379913"/>
+          <a:ext cx="3316800" cy="2085604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96381</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>118276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>654216</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>36122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9063019" y="16332673"/>
+          <a:ext cx="3316800" cy="2085604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93104</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>125948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>650939</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>43794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4921294" y="16340345"/>
+          <a:ext cx="3316800" cy="2085604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9222,26 +10368,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678356</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>41495</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>602156</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>115284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>141014</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>108170</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32847</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>184697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4816804" y="1563305"/>
-          <a:ext cx="3601107" cy="307537"/>
+          <a:off x="5430346" y="16088818"/>
+          <a:ext cx="2189656" cy="310276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9277,79 +10423,35 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>真横から見た時の敵糸とプレイヤーの当たり判定範囲</a:t>
+            <a:t>回避したあとその糸に乗る場合</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>54304</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>17628</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22793</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>217653</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="744045" y="1780300"/>
-          <a:ext cx="3417196" cy="2126921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>172874</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>235717</xdr:rowOff>
+      <xdr:colOff>635002</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>191921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>553873</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>64268</xdr:rowOff>
+      <xdr:colOff>645948</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>20473</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1552357" y="1516665"/>
-          <a:ext cx="1760482" cy="310275"/>
+          <a:off x="1324743" y="14720283"/>
+          <a:ext cx="2080171" cy="310276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9383,9 +10485,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>敵の糸にジャンプした時</a:t>
+            <a:t>跳んでる途中に糸があるとき</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9394,31 +10497,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68099</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522656</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>157460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163349</xdr:rowOff>
+      <xdr:colOff>185645</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>33743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="右矢印 9"/>
+        <xdr:cNvPr id="42" name="右矢印 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4290848" y="2312496"/>
-          <a:ext cx="594492" cy="1299560"/>
+        <a:xfrm rot="18968825">
+          <a:off x="3971363" y="14685822"/>
+          <a:ext cx="1042472" cy="598869"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 64516"/>
+            <a:gd name="adj2" fmla="val 84355"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -9462,511 +10565,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>208017</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>43794</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555499</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>223150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>416034</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>229915</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7105431" y="2769915"/>
-          <a:ext cx="1587500" cy="186121"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>424793</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>176706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>328447</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>87585</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218488</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>99433</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8701690" y="2661965"/>
-          <a:ext cx="5421585" cy="1115189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>敵の糸の当たり判定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>　赤い範囲内に入ってしまうと、糸の罠に引っかかってしまう</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>　その範囲内は回避アクションをすることでそのあたり判定を切ることができる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>　黄色の範囲内に入ればその敵の糸に着地でき青い糸になる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>125250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>191924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8648371" y="2128784"/>
-          <a:ext cx="2425590" cy="307537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>真横から見た糸</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>実際の断面は丸い</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>339397</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6547069" y="2282553"/>
-          <a:ext cx="2101302" cy="684431"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>149999</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>7673</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>503621</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>37972</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4978189" y="8996207"/>
-          <a:ext cx="3112587" cy="1957195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>146724</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>70086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>591207</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>157518</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4974914" y="5686552"/>
-          <a:ext cx="3203448" cy="2014328"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393703</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19597</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>218966</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>86271</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5911634" y="5395200"/>
-          <a:ext cx="1204746" cy="307537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>真横から見た時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>150979</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>235716</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>531978</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>64266</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1530462" y="5370457"/>
-          <a:ext cx="1760482" cy="310275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面内に青糸が多い場合</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>207142</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>177582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>111892</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>31970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="右矢印 40"/>
+        <xdr:cNvPr id="43" name="右矢印 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4345590" y="6034910"/>
-          <a:ext cx="594492" cy="1299560"/>
+        <a:xfrm rot="2660452">
+          <a:off x="4004206" y="16437547"/>
+          <a:ext cx="1042472" cy="598869"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 64516"/>
+            <a:gd name="adj2" fmla="val 84355"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -10010,26 +10633,486 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>557595</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>201886</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>621190</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>157458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>32844</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>27699</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>33741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvPr id="44" name="右矢印 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8208345" y="14204096"/>
+          <a:ext cx="802086" cy="598869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 84355"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>654034</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>201252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76637</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>77535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="右矢印 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8241189" y="17138235"/>
+          <a:ext cx="802086" cy="598869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 84355"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165388</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>224565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10830</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>32923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1344745">
+          <a:off x="3614095" y="16198099"/>
+          <a:ext cx="535183" cy="49221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244580</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>131075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>5145</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>179445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1344745" flipV="1">
+          <a:off x="6452252" y="14659437"/>
+          <a:ext cx="1829790" cy="48370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>625682</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>155961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>671401</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>118911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8051446" flipV="1">
+          <a:off x="9841722" y="14642938"/>
+          <a:ext cx="926398" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222683</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>120126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>672991</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>168496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1344745" flipV="1">
+          <a:off x="10568804" y="14648488"/>
+          <a:ext cx="1829790" cy="48370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277425</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>240556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37990</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>48064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1344745" flipV="1">
+          <a:off x="6485097" y="17659263"/>
+          <a:ext cx="1829790" cy="48370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>255528</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>229607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16094</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>37115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1344745" flipV="1">
+          <a:off x="10601649" y="17648314"/>
+          <a:ext cx="1829790" cy="48370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>316734</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98535</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2626819" y="7745248"/>
-          <a:ext cx="2234215" cy="307537"/>
+          <a:off x="2385958" y="17292145"/>
+          <a:ext cx="1851025" cy="307537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10063,9 +11146,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>ここを狙ってジャンプした場合</a:t>
+            <a:t>自分の貼ってる途中の糸</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10075,75 +11159,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>262758</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>218966</xdr:rowOff>
+      <xdr:colOff>208018</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>229914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>87586</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3021724" y="7039742"/>
-          <a:ext cx="514569" cy="766379"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10948</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>208018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>218965</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:colOff>273707</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>153277</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6908362" y="6547070"/>
-          <a:ext cx="1587500" cy="186121"/>
+        <a:xfrm flipV="1">
+          <a:off x="2966984" y="16203448"/>
+          <a:ext cx="755430" cy="1127674"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10175,25 +11209,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>227724</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>100068</xdr:rowOff>
+      <xdr:colOff>21130</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>4817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>131378</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>10947</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186121</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>175172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8504621" y="6439120"/>
-          <a:ext cx="5421585" cy="1115189"/>
+          <a:off x="8298027" y="15255765"/>
+          <a:ext cx="4303439" cy="652079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10224,43 +11258,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>敵の糸の罠あたり判定が縮小</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>あたり判定の入り口から赤い糸までに回避アクションを行えば、</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>　画面内に入っている自分の青糸が多ければ多いほど少しずつ罠のあたり判定が</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>小さくなっていく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>　それによって回避アクションが成功しやすくなる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>　</a:t>
+            <a:t>後ろのあたり判定は関係なくそのまま通過</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10269,26 +11281,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404652</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>194770</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>240863</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>229915</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>20583</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>602155</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>151853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5922583" y="8701580"/>
-          <a:ext cx="1204746" cy="307537"/>
+          <a:off x="9897242" y="16055974"/>
+          <a:ext cx="1740775" cy="310276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10319,12 +11331,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>真横から見た時</a:t>
+            <a:t>上に乗って敵の糸を奪う</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10333,26 +11345,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>667845</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>170027</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>43794</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>82439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542927</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>239440</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>470776</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>151853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1357586" y="8676837"/>
-          <a:ext cx="1944307" cy="310275"/>
+          <a:off x="9700173" y="13165629"/>
+          <a:ext cx="1806465" cy="310276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10383,12 +11395,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面内に青糸が少ない場合</a:t>
+            <a:t>糸を奪い木の着地地点へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10397,76 +11410,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>383189</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>131379</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382423</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>218965</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>109482</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7280603" y="9601638"/>
-          <a:ext cx="1215259" cy="218965"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>227724</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208018</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>23429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>131378</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>175170</xdr:rowOff>
+      <xdr:rowOff>197069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8504621" y="9493688"/>
-          <a:ext cx="5421585" cy="1115189"/>
+          <a:off x="5210613" y="13197490"/>
+          <a:ext cx="2584560" cy="323631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10497,36 +11460,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>敵の糸の罠あたり判定が拡大</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>　画面内に入っている赤糸が多いほど罠のあたり判定が大きくなる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>　それによって回避アクションは失敗しやすくなる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>　</a:t>
+            <a:t>トリガーの押しっぱなしした場合</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10535,26 +11475,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>557595</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>201886</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97768</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>147145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>32844</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>27699</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>218966</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2626819" y="11117317"/>
-          <a:ext cx="2234215" cy="307537"/>
+          <a:off x="8374665" y="18288438"/>
+          <a:ext cx="4303439" cy="794407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10585,468 +11525,31 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>ここを狙ってジャンプした場合</a:t>
+            <a:t>あたり判定の入り口から赤い糸までに回避アクションを行えば、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>後ろと頭部分のあたり判定は関係なく逆上がりのように上に回り糸の上に着地する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>262758</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>218966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>87586</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3021724" y="10411811"/>
-          <a:ext cx="514569" cy="766379"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>54741</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>194703</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="744482" y="5156637"/>
-          <a:ext cx="3339224" cy="2099704"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>29570</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>21774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>624053</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>203525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857760" y="5156515"/>
-          <a:ext cx="3353448" cy="2108648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>48191</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>42619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>613104</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>205777</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9014829" y="5177360"/>
-          <a:ext cx="3323878" cy="2090055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>274828</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>198188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>297841</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>213447</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9241466" y="10631895"/>
-          <a:ext cx="3471720" cy="2183018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63534</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>173016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>86547</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>188275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9030172" y="10847585"/>
-          <a:ext cx="3471720" cy="2183018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520086</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>158792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543100</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>174051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8796983" y="11074223"/>
-          <a:ext cx="3471720" cy="2183018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>374483</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>13190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>397496</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>28449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6582155" y="14541552"/>
-          <a:ext cx="3471720" cy="2183018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9913</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>32926</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>25173</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6907327" y="14779138"/>
-          <a:ext cx="3471720" cy="2183018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127069</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>214656</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>150082</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>229915</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7024483" y="15224742"/>
-          <a:ext cx="3471720" cy="2183018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12897,7 +13400,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13132,9 +13635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13146,7 +13649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3449034" y="3086100"/>
-          <a:ext cx="275241" cy="1057275"/>
+          <a:ext cx="284766" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13177,15 +13680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>112688</xdr:rowOff>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177372</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13194,7 +13697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943224" y="3998888"/>
+          <a:off x="2924174" y="3694088"/>
           <a:ext cx="3381375" cy="779059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15506,10 +16009,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -15518,10 +16021,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -15582,6 +16085,16 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -15632,140 +16145,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15780,10 +16293,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -15792,11 +16305,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -15851,10 +16364,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>150</v>
       </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15869,96 +16385,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:B43"/>
     </sheetView>
   </sheetViews>
@@ -15968,10 +16400,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -16075,15 +16507,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -16092,10 +16524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -16235,20 +16667,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -16256,7 +16691,7 @@
       <c r="A1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -16270,15 +16705,15 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -16288,74 +16723,121 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="305.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:8" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="34" t="s">
-        <v>166</v>
+      <c r="C19" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -16365,7 +16847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16382,10 +16864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -16458,14 +16940,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16488,10 +16976,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -16714,10 +17202,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -16823,10 +17311,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">

--- a/石田関係/クモ仕様書(β用).xlsx
+++ b/石田関係/クモ仕様書(β用).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="操作説明" sheetId="14" r:id="rId14"/>
     <sheet name="AI" sheetId="21" r:id="rId15"/>
     <sheet name="リザルト" sheetId="22" r:id="rId16"/>
+    <sheet name="グラフィック" sheetId="25" r:id="rId17"/>
+    <sheet name="パーティクル" sheetId="26" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -11834,52 +11836,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403470</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>522581</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161393</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="12016" t="4310" r="13751" b="3432"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5889870" y="4203123"/>
-          <a:ext cx="1490711" cy="1044620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:softEdge rad="317500"/>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -12546,7 +12502,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13190,13 +13146,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>72191</xdr:colOff>
+      <xdr:colOff>72190</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>172303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336175</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>69064</xdr:rowOff>
     </xdr:to>
@@ -13207,8 +13163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591338" y="4733097"/>
-          <a:ext cx="936338" cy="367408"/>
+          <a:off x="7591337" y="4733097"/>
+          <a:ext cx="1631103" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13323,18 +13279,11 @@
         </a:lstStyle>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>3D</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>マップ</a:t>
+            <a:t>トップビューマップ</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -13348,13 +13297,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>78443</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>72191</xdr:colOff>
+      <xdr:colOff>72190</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>120683</xdr:rowOff>
     </xdr:to>
@@ -13367,8 +13316,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6914029" y="4728882"/>
-          <a:ext cx="677309" cy="187919"/>
+          <a:off x="6914031" y="4728883"/>
+          <a:ext cx="677306" cy="187918"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16293,9 +16242,12 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
@@ -16390,8 +16342,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B43"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -16878,6 +16830,33 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/石田関係/クモ仕様書(β用).xlsx
+++ b/石田関係/クモ仕様書(β用).xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
-    <sheet name="フローチャート" sheetId="16" r:id="rId2"/>
-    <sheet name="BGM&amp;SE" sheetId="20" r:id="rId3"/>
-    <sheet name="タイトル" sheetId="17" r:id="rId4"/>
-    <sheet name="ステージセレクト" sheetId="18" r:id="rId5"/>
-    <sheet name="ステージ" sheetId="19" r:id="rId6"/>
-    <sheet name="プレイヤー" sheetId="7" r:id="rId7"/>
-    <sheet name="カメラ" sheetId="13" r:id="rId8"/>
-    <sheet name="木" sheetId="10" r:id="rId9"/>
-    <sheet name="糸" sheetId="11" r:id="rId10"/>
-    <sheet name="奪った糸" sheetId="15" r:id="rId11"/>
-    <sheet name="回避アクション " sheetId="24" r:id="rId12"/>
-    <sheet name="UI" sheetId="12" r:id="rId13"/>
-    <sheet name="操作説明" sheetId="14" r:id="rId14"/>
-    <sheet name="AI" sheetId="21" r:id="rId15"/>
-    <sheet name="リザルト" sheetId="22" r:id="rId16"/>
-    <sheet name="グラフィック" sheetId="25" r:id="rId17"/>
-    <sheet name="パーティクル" sheetId="26" r:id="rId18"/>
+    <sheet name="BGM&amp;SE" sheetId="20" r:id="rId2"/>
+    <sheet name="フローチャート" sheetId="16" r:id="rId3"/>
+    <sheet name="ロード" sheetId="27" r:id="rId4"/>
+    <sheet name="タイトル " sheetId="28" r:id="rId5"/>
+    <sheet name="ステージセレクト" sheetId="29" r:id="rId6"/>
+    <sheet name="ステージ" sheetId="19" r:id="rId7"/>
+    <sheet name="プレイヤー" sheetId="7" r:id="rId8"/>
+    <sheet name="カメラ" sheetId="13" r:id="rId9"/>
+    <sheet name="木" sheetId="10" r:id="rId10"/>
+    <sheet name="糸" sheetId="11" r:id="rId11"/>
+    <sheet name="奪った糸" sheetId="15" r:id="rId12"/>
+    <sheet name="回避アクション " sheetId="24" r:id="rId13"/>
+    <sheet name="UI" sheetId="12" r:id="rId14"/>
+    <sheet name="操作説明" sheetId="14" r:id="rId15"/>
+    <sheet name="AI" sheetId="21" r:id="rId16"/>
+    <sheet name="リザルト" sheetId="22" r:id="rId17"/>
+    <sheet name="グラフィック" sheetId="25" r:id="rId18"/>
+    <sheet name="パーティクル" sheetId="26" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="214">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -5467,12 +5468,504 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード画面イメージ</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード画面の挙動</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面上部にタイトルを表示（現状はリソースなしでタイトルという文字で対応をお願いします）</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイトルを表示した下部にロードバーを表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ロードバーは右側から溜まっていき一番左に到達した場合シーン遷移する</t>
+    <rPh sb="7" eb="9">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ロードバーが溜まる速度は2～4秒のランダム</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ロードバー下部にtipsを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・tipsはボタンを押す事で変更される</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・tipsは現時点で3個用意し3個のうちからロード画面に入った時点でランダムに表示する</t>
+    <rPh sb="6" eb="9">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボタンが押されtipsが切り替わる時一番初めに表示されていたtipsとは別のtipsが表示される</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（tipsはプランナーが何個でも追加しやすいようにお願いします）</t>
+    <rPh sb="12" eb="14">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面イメージ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景にゲーム画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面での動作</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム開始時のロード画面が終了した時点でタイトル画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・遷移と同時に画面背景でＡＩ同士の戦闘を開始し表示させる</t>
+    <rPh sb="1" eb="3">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ＡＩ同士の戦闘は2分でリセットする</t>
+    <rPh sb="3" eb="5">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ＡＩの戦闘のカメラはＹ30の位置からステージを見下ろすようにする</t>
+    <rPh sb="4" eb="6">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カメラは右回りに2分間でステージを一周する速さで移動する</t>
+    <rPh sb="5" eb="7">
+      <t>ミギマワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フンカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイトル画面で何かボタンが押された場合専用のＳＥを再生しPRESS ANY BUTTONを1秒間の間に6回点滅させステージセレクト画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト画面イメージ</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクトの挙動</t>
+    <rPh sb="9" eb="11">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面右側タイトル画面と同じくＡＩ同士の戦闘を表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージセレクト画面ではＡＩの片方の視点に固定して表示しカメラはプレイヤーのカメラと同じにする</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面左側に難易度選択を表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面左側に表示される難易度は左スティックを上下で選択することができる</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択されている難易度は文字サイズが1.5倍になる（デフォルト15）</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5600,6 +6093,15 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5750,7 +6252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5858,6 +6360,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5882,6 +6387,153 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1247775"/>
+          <a:ext cx="4953000" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="1285875"/>
+          <a:ext cx="5588000" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="1285875"/>
+          <a:ext cx="6086475" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7485,7 +8137,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8172,7 +8824,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11551,7 +12203,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13349,7 +14001,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15958,10 +16610,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -15971,7 +16623,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="34"/>
     </row>
@@ -15988,62 +16640,52 @@
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -16064,6 +16706,112 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A3:O15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -16240,15 +16988,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="T64" sqref="T64"/>
+    <sheetView topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -16335,14 +17083,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -16459,14 +17207,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -16619,14 +17367,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -16799,7 +17547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16835,11 +17583,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -16849,7 +17597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16866,6 +17614,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
@@ -16878,46 +17639,250 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+    <hyperlink ref="M24" location="カメラ!A1" display="カメラ!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
@@ -16938,7 +17903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -17164,7 +18129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -17271,100 +18236,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>